--- a/data/trans_bre/P9_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>-5,16%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 2,59</t>
+          <t>-12,43; 3,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 3,01</t>
+          <t>-12,93; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 3,05</t>
+          <t>-13,85; 3,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 3,77</t>
+          <t>-14,36; 3,32</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>0,55%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 3,25</t>
+          <t>-8,37; 11,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 2,2</t>
+          <t>-9,21; 10,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 4,32</t>
+          <t>-9,66; 15,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 2,63</t>
+          <t>-10,77; 14,64</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,05</t>
+          <t>28,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>29,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>56,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>60,69%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 41,27</t>
+          <t>1,53; 60,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 39,47</t>
+          <t>2,52; 61,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 97,56</t>
+          <t>2,74; 252,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 95,3</t>
+          <t>3,42; 270,26</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,14</t>
+          <t>-4,24; 9,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 3,54</t>
+          <t>-4,91; 9,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 5,42</t>
+          <t>-4,98; 12,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,58</t>
+          <t>-5,89; 12,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,59%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.974600036010545</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.93348820885413</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.04588252186701727</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.04501296600916951</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; 3,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,93; 2,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 3,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 3,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.42942176639544</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.15825717997931</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1385222623720816</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1347398985420737</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.004471794559526</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.748048371771647</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.03380693393822975</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.03309938549340526</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 11,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; 10,76</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 15,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; 14,64</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.320686235409041</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3646184686579401</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01645712371570121</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.004448920842872924</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>28,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>29,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>56,19%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>60,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.372060359242823</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.11753600849339</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.09660260475903307</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1159978110193382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 60,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 61,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 252,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,42; 270,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.38710914512195</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.763609709805809</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1574499956106433</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1141987440304689</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>28.26925274401819</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>32.47912155517539</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.561899527725493</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.6773448025310571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 9,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 9,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 12,97</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 12,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.531613054849338</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.651586561716095</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.02740240979389217</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.07681476705496043</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>60.18674963788495</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>64.01850119136265</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.524440758467697</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.131874204120451</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.853035888315002</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.329491833032959</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.02317024154665197</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01639826013924811</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.241486167680971</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.745352024557202</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.04982351523647535</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.05600531174074089</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.189027946617104</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.81902825417065</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1296635463905482</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1192664131198345</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
